--- a/LR-Calculation of Coeff.xlsx
+++ b/LR-Calculation of Coeff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AAF2C3-BD79-433F-AFA2-843C2F7FE893}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A5D71-3BD7-4F53-B822-CC3D5646AB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ML5-sLR Coeff." sheetId="3" r:id="rId1"/>
@@ -2130,6 +2130,15 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="37" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="37" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2182,6 +2191,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2210,13 +2226,6 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,44 +2240,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="37" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2789,17 +2789,17 @@
   <sheetData>
     <row r="2" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -2808,17 +2808,17 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="24"/>
@@ -2831,31 +2831,31 @@
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="23"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="186" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
       <c r="N7" s="116">
         <v>4</v>
       </c>
@@ -2865,17 +2865,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="181"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="184"/>
       <c r="N8" s="117"/>
       <c r="O8" s="119"/>
       <c r="P8" s="119"/>
@@ -2895,17 +2895,17 @@
     </row>
     <row r="10" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="188" t="s">
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="42" t="s">
         <v>22</v>
       </c>
@@ -3349,13 +3349,13 @@
       <c r="O22" s="121"/>
     </row>
     <row r="23" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
       <c r="G23" s="12"/>
       <c r="H23" s="92" t="s">
         <v>63</v>
@@ -3397,20 +3397,20 @@
       <c r="O25" s="121"/>
     </row>
     <row r="26" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="178"/>
-      <c r="M26" s="171" t="s">
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+      <c r="M26" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
     </row>
     <row r="27" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
@@ -3419,13 +3419,13 @@
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
       <c r="H28" s="92" t="s">
         <v>65</v>
       </c>
@@ -3499,20 +3499,20 @@
   <sheetData>
     <row r="2" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
       <c r="N2" s="85"/>
       <c r="O2" s="84"/>
       <c r="P2" s="84"/>
@@ -3533,20 +3533,20 @@
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
       <c r="N4" s="89"/>
       <c r="O4" s="89"/>
       <c r="P4" s="89"/>
@@ -3579,20 +3579,20 @@
       <c r="U5" s="85"/>
     </row>
     <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
       <c r="N6" s="90"/>
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
@@ -3601,49 +3601,49 @@
       <c r="S6" s="90"/>
     </row>
     <row r="7" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="186" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="216" t="s">
+      <c r="P7" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
       <c r="V7" s="85"/>
     </row>
     <row r="8" spans="1:27" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
@@ -3661,27 +3661,27 @@
     </row>
     <row r="9" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
       <c r="N9" s="74"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="208" t="s">
+      <c r="Q9" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="208"/>
-      <c r="S9" s="209"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="215"/>
       <c r="T9" s="43" t="s">
         <v>40</v>
       </c>
@@ -4308,14 +4308,14 @@
       <c r="M22" s="70"/>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
-      <c r="P22" s="210" t="s">
+      <c r="P22" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="178"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="180"/>
+      <c r="U22" s="181"/>
       <c r="V22" s="17"/>
     </row>
     <row r="23" spans="2:28" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4364,14 +4364,14 @@
       <c r="M24" s="70"/>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="211" t="s">
+      <c r="P24" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="178"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="219"/>
+      <c r="S24" s="180"/>
+      <c r="T24" s="180"/>
+      <c r="U24" s="181"/>
       <c r="V24" s="3"/>
       <c r="Y24" s="14"/>
     </row>
@@ -4426,16 +4426,16 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -4474,16 +4474,16 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="2:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="197" t="s">
+      <c r="B29" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="198"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -4491,30 +4491,30 @@
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="215" t="s">
+      <c r="Q29" s="201" t="s">
         <v>110</v>
       </c>
-      <c r="R29" s="215"/>
+      <c r="R29" s="201"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
-      <c r="X29" s="215" t="s">
+      <c r="X29" s="201" t="s">
         <v>111</v>
       </c>
-      <c r="Y29" s="215"/>
+      <c r="Y29" s="201"/>
     </row>
     <row r="30" spans="2:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="199" t="s">
+      <c r="B30" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="203"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
       <c r="J30" s="73" t="s">
         <v>46</v>
       </c>
@@ -4524,22 +4524,22 @@
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="171" t="s">
+      <c r="Q30" s="174" t="s">
         <v>109</v>
       </c>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
       <c r="V30" s="17"/>
       <c r="W30" s="113"/>
-      <c r="X30" s="214" t="s">
+      <c r="X30" s="200" t="s">
         <v>106</v>
       </c>
-      <c r="Y30" s="181"/>
-      <c r="Z30" s="181"/>
-      <c r="AA30" s="181"/>
-      <c r="AB30" s="181"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="184"/>
     </row>
     <row r="31" spans="2:28" ht="17.25" x14ac:dyDescent="0.3">
       <c r="J31" s="49"/>
@@ -4553,10 +4553,10 @@
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
       <c r="V31" s="17"/>
-      <c r="X31" s="172" t="s">
+      <c r="X31" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="Y31" s="172"/>
+      <c r="Y31" s="175"/>
       <c r="Z31" s="114" t="s">
         <v>108</v>
       </c>
@@ -4592,16 +4592,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X30:AB30"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:M7"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="Q30:U30"/>
@@ -4611,6 +4601,16 @@
     <mergeCell ref="P22:U22"/>
     <mergeCell ref="P24:U24"/>
     <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4651,17 +4651,17 @@
   <sheetData>
     <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -4670,28 +4670,28 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="187" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="M4" s="184" t="s">
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="M4" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="185"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="188"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
     </row>
     <row r="5" spans="1:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="88"/>
@@ -4704,76 +4704,76 @@
       <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="90"/>
-      <c r="M6" s="194" t="s">
+      <c r="M6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="198"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
       <c r="S6" s="90"/>
     </row>
     <row r="7" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="186" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="M7" s="196" t="s">
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="M7" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="186" t="s">
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
+      <c r="Q7" s="190"/>
+      <c r="R7" s="190"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
     </row>
     <row r="8" spans="1:21" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="181"/>
-      <c r="M8" s="182" t="s">
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="184"/>
+      <c r="M8" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="183"/>
-      <c r="O8" s="183"/>
-      <c r="P8" s="183"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="183"/>
-      <c r="S8" s="183"/>
-      <c r="T8" s="183"/>
-      <c r="U8" s="181"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="184"/>
     </row>
     <row r="9" spans="1:21" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="86"/>
@@ -4787,17 +4787,17 @@
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="188" t="s">
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="42" t="s">
         <v>22</v>
       </c>
@@ -5305,13 +5305,13 @@
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="184" t="s">
+      <c r="B26" s="187" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="181"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="181"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
       <c r="G26" s="12"/>
       <c r="H26" s="92" t="s">
         <v>118</v>
@@ -5353,18 +5353,18 @@
       <c r="O28" s="33"/>
     </row>
     <row r="29" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="179" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="178"/>
-      <c r="M29" s="171"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="181"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
     </row>
     <row r="30" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="21"/>
@@ -5373,13 +5373,13 @@
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="175"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="178"/>
       <c r="H31" s="92" t="s">
         <v>120</v>
       </c>
@@ -5393,16 +5393,23 @@
       <c r="H34" s="17"/>
     </row>
     <row r="36" spans="8:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M36" s="171" t="s">
+      <c r="M36" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M36:Q36"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="M8:U8"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B4:J4"/>
@@ -5414,13 +5421,6 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="M8:U8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -5466,20 +5466,20 @@
   <sheetData>
     <row r="2" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
       <c r="N2" s="34"/>
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
@@ -5500,20 +5500,20 @@
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="36"/>
@@ -5546,20 +5546,20 @@
       <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
@@ -5568,49 +5568,49 @@
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="186" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
       <c r="N7" s="34"/>
       <c r="O7" s="34"/>
-      <c r="P7" s="216" t="s">
+      <c r="P7" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
       <c r="V7" s="31"/>
     </row>
     <row r="8" spans="1:27" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
@@ -5628,27 +5628,27 @@
     </row>
     <row r="9" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
       <c r="N9" s="74"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="208" t="s">
+      <c r="Q9" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="208"/>
-      <c r="S9" s="209"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="215"/>
       <c r="T9" s="43" t="s">
         <v>40</v>
       </c>
@@ -6235,14 +6235,14 @@
       <c r="M22" s="70"/>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
-      <c r="P22" s="210" t="s">
+      <c r="P22" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="178"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="180"/>
+      <c r="U22" s="181"/>
       <c r="V22" s="17"/>
     </row>
     <row r="23" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -6291,14 +6291,14 @@
       <c r="M24" s="70"/>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="211" t="s">
+      <c r="P24" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="178"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="219"/>
+      <c r="S24" s="180"/>
+      <c r="T24" s="180"/>
+      <c r="U24" s="181"/>
       <c r="V24" s="3"/>
       <c r="Y24" s="14"/>
     </row>
@@ -6353,16 +6353,16 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -6401,16 +6401,16 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="197" t="s">
+      <c r="B29" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="198"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -6426,16 +6426,16 @@
       <c r="V29" s="17"/>
     </row>
     <row r="30" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="199" t="s">
+      <c r="B30" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="203"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
       <c r="J30" s="73" t="s">
         <v>46</v>
       </c>
@@ -6445,13 +6445,13 @@
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="217" t="s">
+      <c r="Q30" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="181"/>
-      <c r="S30" s="181"/>
-      <c r="T30" s="181"/>
-      <c r="U30" s="181"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
       <c r="V30" s="17"/>
     </row>
     <row r="31" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
@@ -6549,17 +6549,17 @@
   <sheetData>
     <row r="2" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
     </row>
     <row r="3" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -6568,17 +6568,17 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="88"/>
@@ -6591,44 +6591,44 @@
       <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="90"/>
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="186" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
     </row>
     <row r="8" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="181"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="184"/>
     </row>
     <row r="9" spans="1:14" s="7" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="86"/>
@@ -6642,17 +6642,17 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="188" t="s">
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="42" t="s">
         <v>22</v>
       </c>
@@ -7001,13 +7001,13 @@
       <c r="O22" s="33"/>
     </row>
     <row r="23" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="184" t="s">
+      <c r="B23" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="181"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
       <c r="G23" s="12"/>
       <c r="H23" s="92" t="s">
         <v>63</v>
@@ -7049,20 +7049,20 @@
       <c r="O25" s="33"/>
     </row>
     <row r="26" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="178"/>
-      <c r="M26" s="171" t="s">
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="181"/>
+      <c r="M26" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
     </row>
     <row r="27" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="21"/>
@@ -7071,13 +7071,13 @@
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
       <c r="H28" s="92" t="s">
         <v>65</v>
       </c>
@@ -7151,20 +7151,20 @@
   <sheetData>
     <row r="2" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
       <c r="N2" s="85"/>
       <c r="O2" s="84"/>
       <c r="P2" s="84"/>
@@ -7185,20 +7185,20 @@
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
       <c r="N4" s="89"/>
       <c r="O4" s="89"/>
       <c r="P4" s="89"/>
@@ -7231,20 +7231,20 @@
       <c r="U5" s="85"/>
     </row>
     <row r="6" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
       <c r="N6" s="90"/>
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
@@ -7253,49 +7253,49 @@
       <c r="S6" s="90"/>
     </row>
     <row r="7" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="186" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="216" t="s">
+      <c r="P7" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="216"/>
-      <c r="S7" s="216"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="216"/>
+      <c r="Q7" s="202"/>
+      <c r="R7" s="202"/>
+      <c r="S7" s="202"/>
+      <c r="T7" s="202"/>
+      <c r="U7" s="202"/>
       <c r="V7" s="85"/>
     </row>
     <row r="8" spans="1:27" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="210" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
-      <c r="M8" s="205"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
@@ -7313,27 +7313,27 @@
     </row>
     <row r="9" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="212" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
       <c r="N9" s="74"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="208" t="s">
+      <c r="Q9" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="208"/>
-      <c r="S9" s="209"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="215"/>
       <c r="T9" s="43" t="s">
         <v>40</v>
       </c>
@@ -7921,14 +7921,14 @@
       <c r="M22" s="70"/>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
-      <c r="P22" s="210" t="s">
+      <c r="P22" s="216" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="178"/>
+      <c r="Q22" s="180"/>
+      <c r="R22" s="180"/>
+      <c r="S22" s="180"/>
+      <c r="T22" s="180"/>
+      <c r="U22" s="181"/>
       <c r="V22" s="17"/>
     </row>
     <row r="23" spans="2:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -7977,14 +7977,14 @@
       <c r="M24" s="70"/>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="211" t="s">
+      <c r="P24" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="213"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="178"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="219"/>
+      <c r="S24" s="180"/>
+      <c r="T24" s="180"/>
+      <c r="U24" s="181"/>
       <c r="V24" s="3"/>
       <c r="Y24" s="14"/>
     </row>
@@ -8039,16 +8039,16 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="210" t="s">
+      <c r="B27" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="181"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
@@ -8087,16 +8087,16 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="197" t="s">
+      <c r="B29" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="198"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="204"/>
+      <c r="G29" s="204"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="204"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -8112,16 +8112,16 @@
       <c r="V29" s="17"/>
     </row>
     <row r="30" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="199" t="s">
+      <c r="B30" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="202"/>
-      <c r="I30" s="203"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
       <c r="J30" s="73" t="s">
         <v>46</v>
       </c>
@@ -8131,13 +8131,13 @@
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
       <c r="P30" s="17"/>
-      <c r="Q30" s="217" t="s">
+      <c r="Q30" s="220" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="181"/>
-      <c r="S30" s="181"/>
-      <c r="T30" s="181"/>
-      <c r="U30" s="181"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
       <c r="V30" s="17"/>
     </row>
     <row r="31" spans="2:25" ht="17.25" x14ac:dyDescent="0.3">
@@ -8184,12 +8184,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:M7"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="Q30:U30"/>
@@ -8199,6 +8193,12 @@
     <mergeCell ref="P22:U22"/>
     <mergeCell ref="P24:U24"/>
     <mergeCell ref="B27:I27"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8209,8 +8209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23786E57-C379-4A39-8279-606112C16158}">
   <dimension ref="A2:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8245,19 +8245,19 @@
   <sheetData>
     <row r="2" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="223"/>
-      <c r="L2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -8266,21 +8266,21 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="199" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
       <c r="I4" s="126"/>
       <c r="J4" s="126"/>
-      <c r="K4" s="227" t="s">
+      <c r="K4" s="228" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="228"/>
+      <c r="L4" s="229"/>
       <c r="O4" s="137"/>
       <c r="P4" s="137"/>
       <c r="Q4" s="137"/>
@@ -8305,8 +8305,8 @@
       <c r="H5" s="138"/>
       <c r="I5" s="144"/>
       <c r="J5" s="144"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="229"/>
       <c r="O5" s="137"/>
       <c r="P5" s="137"/>
       <c r="Q5" s="137"/>
@@ -8315,17 +8315,17 @@
       <c r="T5" s="137"/>
     </row>
     <row r="6" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="139"/>
-      <c r="K6" s="228"/>
-      <c r="L6" s="228"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
       <c r="O6" s="137"/>
       <c r="P6" s="137"/>
       <c r="Q6" s="137"/>
@@ -8354,8 +8354,8 @@
       <c r="H7" s="132"/>
       <c r="I7" s="126"/>
       <c r="J7" s="126"/>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
       <c r="O7" s="137"/>
       <c r="P7" s="137"/>
       <c r="Q7" s="137"/>
@@ -8371,19 +8371,19 @@
       <c r="AA7" s="126"/>
     </row>
     <row r="8" spans="1:27" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
       <c r="J8" s="128"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
+      <c r="K8" s="229"/>
+      <c r="L8" s="229"/>
       <c r="M8" s="137"/>
       <c r="N8" s="137"/>
       <c r="O8" s="137"/>
@@ -8423,22 +8423,22 @@
     </row>
     <row r="10" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="218" t="s">
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="220" t="s">
+      <c r="H10" s="222"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="221"/>
+      <c r="L10" s="224"/>
       <c r="O10" s="137"/>
       <c r="P10" s="137"/>
       <c r="Q10" s="137"/>
@@ -8481,7 +8481,7 @@
       <c r="K11" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="233" t="s">
+      <c r="L11" s="171" t="s">
         <v>125</v>
       </c>
       <c r="O11" s="137"/>
@@ -8699,16 +8699,16 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="229" t="s">
+      <c r="G17" s="230" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="230"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="232" t="s">
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="221"/>
+      <c r="L17" s="224"/>
       <c r="O17" s="137"/>
       <c r="P17" s="137"/>
       <c r="Q17" s="137"/>
@@ -8738,7 +8738,7 @@
       <c r="K18" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="234" t="s">
+      <c r="L18" s="172" t="s">
         <v>125</v>
       </c>
       <c r="O18" s="137"/>
@@ -8924,12 +8924,12 @@
       <c r="D25" s="149"/>
       <c r="E25" s="149"/>
       <c r="F25" s="149"/>
-      <c r="G25" s="224" t="s">
+      <c r="G25" s="225" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="225"/>
-      <c r="I25" s="225"/>
-      <c r="J25" s="189"/>
+      <c r="H25" s="226"/>
+      <c r="I25" s="226"/>
+      <c r="J25" s="192"/>
       <c r="K25" s="163" t="s">
         <v>22</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="K26" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="L26" s="235" t="s">
+      <c r="L26" s="173" t="s">
         <v>125</v>
       </c>
       <c r="O26" s="137"/>
@@ -9046,15 +9046,15 @@
         <v>102</v>
       </c>
       <c r="L29" s="104"/>
-      <c r="O29" s="171"/>
-      <c r="P29" s="171"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
     </row>
     <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="126"/>
@@ -9095,18 +9095,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="K4:L8"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="O29:W29"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="K4:L8"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9118,7 +9118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F97F64A-C0A7-4843-BE88-AE144A7C843B}">
   <dimension ref="A2:T29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M29" sqref="M29:P29"/>
     </sheetView>
   </sheetViews>
@@ -9147,17 +9147,17 @@
   <sheetData>
     <row r="2" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="184"/>
       <c r="N2" s="170" t="s">
         <v>130</v>
       </c>
@@ -9169,25 +9169,25 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="187" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="188"/>
+      <c r="O4" s="188"/>
+      <c r="P4" s="188"/>
+      <c r="Q4" s="188"/>
+      <c r="R4" s="188"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
     </row>
     <row r="5" spans="1:20" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="96"/>
@@ -9200,14 +9200,14 @@
       <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
       <c r="H6" s="98"/>
       <c r="M6" s="109"/>
       <c r="N6" s="170"/>
@@ -9219,19 +9219,19 @@
       <c r="T6" s="105"/>
     </row>
     <row r="7" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="186" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
       <c r="M7" s="110"/>
       <c r="N7" s="110"/>
       <c r="O7" s="107"/>
@@ -9242,17 +9242,17 @@
       <c r="T7" s="105"/>
     </row>
     <row r="8" spans="1:20" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="183"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="181"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="184"/>
       <c r="M8" s="122"/>
       <c r="N8" s="106">
         <v>2</v>
@@ -9278,17 +9278,17 @@
     </row>
     <row r="10" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="188" t="s">
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="189"/>
-      <c r="I10" s="190"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="193"/>
       <c r="J10" s="42" t="s">
         <v>22</v>
       </c>
@@ -9573,13 +9573,13 @@
       <c r="Q18" s="33"/>
     </row>
     <row r="19" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="187" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
       <c r="G19" s="61"/>
       <c r="H19" s="91" t="s">
         <v>81</v>
@@ -9588,11 +9588,11 @@
       <c r="J19" s="3"/>
       <c r="L19" s="7"/>
       <c r="M19"/>
-      <c r="N19" s="181" t="s">
+      <c r="N19" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="O19" s="181"/>
-      <c r="P19" s="181"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="184"/>
       <c r="Q19" s="33"/>
     </row>
     <row r="20" spans="2:18" ht="21" x14ac:dyDescent="0.35">
@@ -9626,28 +9626,28 @@
       <c r="E21" s="12"/>
       <c r="L21" s="7"/>
       <c r="M21"/>
-      <c r="O21" s="181" t="s">
+      <c r="O21" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="181"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="184"/>
     </row>
     <row r="22" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="178"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="181"/>
       <c r="M22"/>
-      <c r="O22" s="181" t="s">
+      <c r="O22" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="181"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
     </row>
     <row r="23" spans="2:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="21"/>
@@ -9655,21 +9655,21 @@
       <c r="D23" s="52"/>
       <c r="E23" s="22"/>
       <c r="M23"/>
-      <c r="O23" s="181" t="s">
+      <c r="O23" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="184"/>
     </row>
     <row r="24" spans="2:18" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="175"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="178"/>
       <c r="H24" s="92" t="s">
         <v>83</v>
       </c>
@@ -9681,30 +9681,24 @@
       <c r="F25" s="17"/>
     </row>
     <row r="27" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
     </row>
     <row r="29" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M29" s="171"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="B27:H27"/>
@@ -9717,6 +9711,12 @@
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="O23:R23"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/LR-Calculation of Coeff.xlsx
+++ b/LR-Calculation of Coeff.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145A5D71-3BD7-4F53-B822-CC3D5646AB2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE459A3-F3DC-4FF5-966A-B11C3BAA1B52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ML5-sLR Coeff." sheetId="3" r:id="rId1"/>
@@ -14,8 +14,9 @@
     <sheet name="Example-E5.2" sheetId="1" r:id="rId4"/>
     <sheet name="Example-E5.3" sheetId="5" r:id="rId5"/>
     <sheet name="Example-E5.4" sheetId="6" r:id="rId6"/>
-    <sheet name="Homework-5.1_a " sheetId="9" r:id="rId7"/>
-    <sheet name="Homework-5.1_b" sheetId="8" r:id="rId8"/>
+    <sheet name="Homework-H5.1_a " sheetId="9" r:id="rId7"/>
+    <sheet name="Homework-H5.1_b" sheetId="8" r:id="rId8"/>
+    <sheet name="Example-E5.1 Grades" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +27,111 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{4C81D22C-DA44-4ECA-A66B-01F3287288BB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Tragen Sie hier die Punkte ein,  für die Sie die Note 4,0 geben möchten
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{3BA78ACF-2C6D-42A8-9D5D-5E5CBB96897C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tragen Sie hier die Punkte ein,  für die Sie die Note 1,0 geben möchten</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{9A1610AA-EBC4-4B87-AFAF-E2356B71C8D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tragen Sie hier die erreichten Punkte gemäß o.g. Schlüssel 
+ein</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{750FDE14-73D0-4A50-ADDA-78C0502B4693}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auf 100Punkte normiertes Ergebnis.
+Nicht editieren!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{3FFC60E0-0B13-40F1-8EA9-85D0E4F99015}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Berechnete Note gemäß o.g. Schlüssel.
+Nicht editieren!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{B44FD3BB-AA1C-4D78-A581-7382A5A67DB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Beginn der fortlaufenden Nummerierung
+vorgeben, z.B. "1"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="179">
   <si>
     <t>sum</t>
   </si>
@@ -1245,17 +1349,313 @@
       <t xml:space="preserve"> unclear ??!</t>
     </r>
   </si>
+  <si>
+    <t>Mean-Values ("Mittelwerte"): [M(x),M(y)] = [55/10; 343/10] =  [5,5; 34,3]</t>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= (363*34,3 -5,5*2097)/(363-10*5,5²) = (4587/5)/(121/2) = 834/55 ~15,164  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (2097 -10*5,5*34,3)/(121/2) = 421/121~3,479 </t>
+    </r>
+  </si>
+  <si>
+    <t>----&gt; Regression-Line:  y =  15,164 + 3,479*x</t>
+  </si>
+  <si>
+    <t>sse+ssr</t>
+  </si>
+  <si>
+    <t>R² = 1 - Sum((yi-y(xi))²)/Sum((yi-M(y))²) = 1 -(134,2172/922,1) ~ 0,8544</t>
+  </si>
+  <si>
+    <t>R² = 1 - Sum((yi-y(xi))²)/Sum((yi-M(y))²) = 1 -(189,699 / 922,1) ~ 0,7943</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check  of  Proposition (P5.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  f(Mean(x)) =  14,117 + 3,736*5,4 = 34,2914 ~ Mean(y)  q.e.d.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Check  of  Proposition (P5.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  f(Mean(x)) = 15,164 + 3,479*5,5 = -34,2985 ~ Mean(y)  q.e.d.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kurs:</t>
+  </si>
+  <si>
+    <t>Notenschlüssel</t>
+  </si>
+  <si>
+    <t>Punkte</t>
+  </si>
+  <si>
+    <t>Dozent:</t>
+  </si>
+  <si>
+    <t>Note 4,0 bei:</t>
+  </si>
+  <si>
+    <t>ggfs.</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Note 1,0 bei:</t>
+  </si>
+  <si>
+    <t>anpassen</t>
+  </si>
+  <si>
+    <t>Modul/Unit:</t>
+  </si>
+  <si>
+    <t>Veranstaltung:</t>
+  </si>
+  <si>
+    <t>bestes Ergebnis</t>
+  </si>
+  <si>
+    <t>schlechtestes Ergebnis</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punkte </t>
+  </si>
+  <si>
+    <t>Normiert</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Studiengang Informatik</t>
+  </si>
+  <si>
+    <t>Klausurergebnisse</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Part 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Find "least square fit" </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y = b0 + b1x  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with {(exam prep.[h], score[pt.])}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{(7, 41), (3, 27), (5, 35), (3, 26), (8, 48), (7, 45), (10,  46), (3, 27), (5, 29) , (3, 19)}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Second Part: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>similar to first part build the above table with the new data: {(homework[h], score[pt.])}= {(5, 41), (4, 27), (5, 35), (3, 26), (9, 48), (8, 45), (10, 46), (5, 27), (3, 29), (3, 19)}</t>
+    </r>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exam. prep. x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <t>Question 1:   14,117 points.</t>
+  </si>
+  <si>
+    <t>Question 2:   14,117 + 37,36 = 51,477 = 50 points (grade=  1,0).</t>
+  </si>
+  <si>
+    <t>Question 1:   15,164 points.</t>
+  </si>
+  <si>
+    <t>Question 2:   15,164 + 34,79 = 49,954 = 50 points (grade=  1,0).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1553,8 +1953,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1608,8 +2058,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1787,12 +2249,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2191,13 +2744,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2226,6 +2772,39 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2237,9 +2816,6 @@
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2247,37 +2823,178 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="42" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FFEA885C"/>
     </mruColors>
   </colors>
@@ -2351,6 +3068,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
+      <xdr:colOff>86592</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185552</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>24740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95430C9C-5A79-4EE9-839A-65053F5C54F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6333508" y="5282045"/>
+          <a:ext cx="3896589" cy="2808020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>136071</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86430</xdr:rowOff>
@@ -2400,7 +3166,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2449,7 +3215,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2491,6 +3257,85 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="DHBW_d_Stuttgart_46mm_4c">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2094CCF-B376-4017-8174-B9499C201A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4686300" y="38100"/>
+          <a:ext cx="1743075" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2764,7 +3609,7 @@
   <dimension ref="A2:Q33"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:P19"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3619,31 +4464,31 @@
       <c r="M7" s="184"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="202" t="s">
+      <c r="P7" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="219"/>
+      <c r="S7" s="219"/>
+      <c r="T7" s="219"/>
+      <c r="U7" s="219"/>
       <c r="V7" s="85"/>
     </row>
     <row r="8" spans="1:27" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="210" t="s">
+      <c r="B8" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
@@ -3661,27 +4506,27 @@
     </row>
     <row r="9" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
       <c r="N9" s="74"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="214" t="s">
+      <c r="Q9" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="214"/>
-      <c r="S9" s="215"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="212"/>
       <c r="T9" s="43" t="s">
         <v>40</v>
       </c>
@@ -4308,7 +5153,7 @@
       <c r="M22" s="70"/>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
-      <c r="P22" s="216" t="s">
+      <c r="P22" s="213" t="s">
         <v>50</v>
       </c>
       <c r="Q22" s="180"/>
@@ -4364,11 +5209,11 @@
       <c r="M24" s="70"/>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="217" t="s">
+      <c r="P24" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="219"/>
+      <c r="Q24" s="215"/>
+      <c r="R24" s="216"/>
       <c r="S24" s="180"/>
       <c r="T24" s="180"/>
       <c r="U24" s="181"/>
@@ -4426,7 +5271,7 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="213" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="180"/>
@@ -4474,16 +5319,16 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="2:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -4491,30 +5336,30 @@
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
       <c r="P29" s="17"/>
-      <c r="Q29" s="201" t="s">
+      <c r="Q29" s="218" t="s">
         <v>110</v>
       </c>
-      <c r="R29" s="201"/>
+      <c r="R29" s="218"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
       <c r="U29" s="17"/>
       <c r="V29" s="17"/>
-      <c r="X29" s="201" t="s">
+      <c r="X29" s="218" t="s">
         <v>111</v>
       </c>
-      <c r="Y29" s="201"/>
+      <c r="Y29" s="218"/>
     </row>
     <row r="30" spans="2:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="206"/>
       <c r="J30" s="73" t="s">
         <v>46</v>
       </c>
@@ -4533,7 +5378,7 @@
       <c r="U30" s="175"/>
       <c r="V30" s="17"/>
       <c r="W30" s="113"/>
-      <c r="X30" s="200" t="s">
+      <c r="X30" s="217" t="s">
         <v>106</v>
       </c>
       <c r="Y30" s="184"/>
@@ -4592,6 +5437,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:M7"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="Q30:U30"/>
@@ -4601,16 +5456,6 @@
     <mergeCell ref="P22:U22"/>
     <mergeCell ref="P24:U24"/>
     <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="X30:AB30"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4619,10 +5464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208C7EF2-8CEA-4381-B794-B376FD82D93B}">
-  <dimension ref="A2:U36"/>
+  <dimension ref="A2:U53"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29:Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4632,9 +5477,8 @@
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
     <col min="10" max="10" width="32.28515625" customWidth="1"/>
     <col min="11" max="12" width="3.7109375" customWidth="1"/>
@@ -4743,7 +5587,7 @@
       <c r="N7" s="199"/>
       <c r="O7" s="199"/>
       <c r="P7" s="189" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="190"/>
       <c r="R7" s="190"/>
@@ -4802,8 +5646,21 @@
         <v>22</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="194" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="195"/>
+      <c r="P10" s="195"/>
+      <c r="Q10" s="196"/>
+      <c r="R10" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="192"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="42" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -4835,8 +5692,33 @@
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="M11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="41" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
@@ -4874,8 +5756,39 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="M12" s="19">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
+        <v>5</v>
+      </c>
+      <c r="O12" s="19">
+        <v>41</v>
+      </c>
+      <c r="P12" s="19">
+        <f>N12*O12</f>
+        <v>205</v>
+      </c>
+      <c r="Q12" s="19">
+        <f>N12*N12</f>
+        <v>25</v>
+      </c>
+      <c r="R12" s="19">
+        <f>15.164+3.479*N12</f>
+        <v>32.558999999999997</v>
+      </c>
+      <c r="S12" s="19">
+        <f xml:space="preserve"> (O12-R12)*(O12-R12)</f>
+        <v>71.250481000000036</v>
+      </c>
+      <c r="T12" s="19">
+        <f>(O12-34.3)*(O12-34.3)</f>
+        <v>44.890000000000036</v>
+      </c>
+      <c r="U12" s="19">
+        <f>(R12-34.3)*(R12-34.3)</f>
+        <v>3.031080999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="19">
@@ -4913,8 +5826,39 @@
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="19">
+        <v>2</v>
+      </c>
+      <c r="N13" s="19">
+        <v>4</v>
+      </c>
+      <c r="O13" s="19">
+        <v>27</v>
+      </c>
+      <c r="P13" s="19">
+        <f t="shared" ref="P13:P21" si="6">N13*O13</f>
+        <v>108</v>
+      </c>
+      <c r="Q13" s="19">
+        <f t="shared" ref="Q13:Q21" si="7">N13*N13</f>
+        <v>16</v>
+      </c>
+      <c r="R13" s="19">
+        <f t="shared" ref="R13:R21" si="8">15.164+3.479*N13</f>
+        <v>29.08</v>
+      </c>
+      <c r="S13" s="19">
+        <f t="shared" ref="S13:S21" si="9" xml:space="preserve"> (O13-R13)*(O13-R13)</f>
+        <v>4.3263999999999925</v>
+      </c>
+      <c r="T13" s="19">
+        <f t="shared" ref="T13:T21" si="10">(O13-34.3)*(O13-34.3)</f>
+        <v>53.289999999999957</v>
+      </c>
+      <c r="U13" s="19">
+        <f t="shared" ref="U13:U21" si="11">(R13-34.3)*(R13-34.3)</f>
+        <v>27.24839999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
@@ -4951,8 +5895,39 @@
         <v>2.2590090000000003</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="19">
+        <v>3</v>
+      </c>
+      <c r="N14" s="19">
+        <v>5</v>
+      </c>
+      <c r="O14" s="19">
+        <v>35</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="6"/>
+        <v>175</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="R14" s="19">
+        <f t="shared" si="8"/>
+        <v>32.558999999999997</v>
+      </c>
+      <c r="S14" s="19">
+        <f t="shared" si="9"/>
+        <v>5.9584810000000124</v>
+      </c>
+      <c r="T14" s="19">
+        <f t="shared" si="10"/>
+        <v>0.49000000000000399</v>
+      </c>
+      <c r="U14" s="19">
+        <f t="shared" si="11"/>
+        <v>3.031080999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19">
@@ -4990,8 +5965,39 @@
       </c>
       <c r="K15" s="10"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="M15" s="19">
+        <v>4</v>
+      </c>
+      <c r="N15" s="19">
+        <v>3</v>
+      </c>
+      <c r="O15" s="19">
+        <v>26</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="8"/>
+        <v>25.600999999999999</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="9"/>
+        <v>0.15920100000000073</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="10"/>
+        <v>68.889999999999958</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="11"/>
+        <v>75.672600999999972</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
@@ -5029,10 +6035,41 @@
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="19">
+        <v>5</v>
+      </c>
+      <c r="N16" s="19">
+        <v>9</v>
+      </c>
+      <c r="O16" s="19">
+        <v>48</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="6"/>
+        <v>432</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" si="8"/>
+        <v>46.475000000000001</v>
+      </c>
+      <c r="S16" s="19">
+        <f t="shared" si="9"/>
+        <v>2.3256249999999956</v>
+      </c>
+      <c r="T16" s="19">
+        <f t="shared" si="10"/>
+        <v>187.69000000000008</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" si="11"/>
+        <v>148.23062500000012</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19">
         <v>6</v>
       </c>
@@ -5068,10 +6105,41 @@
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="19">
+        <v>6</v>
+      </c>
+      <c r="N17" s="19">
+        <v>8</v>
+      </c>
+      <c r="O17" s="19">
+        <v>45</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="8"/>
+        <v>42.996000000000002</v>
+      </c>
+      <c r="S17" s="19">
+        <f t="shared" si="9"/>
+        <v>4.0160159999999907</v>
+      </c>
+      <c r="T17" s="19">
+        <f t="shared" si="10"/>
+        <v>114.49000000000007</v>
+      </c>
+      <c r="U17" s="19">
+        <f t="shared" si="11"/>
+        <v>75.620416000000091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19">
         <v>7</v>
       </c>
@@ -5107,10 +6175,41 @@
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="19">
+        <v>7</v>
+      </c>
+      <c r="N18" s="19">
+        <v>10</v>
+      </c>
+      <c r="O18" s="19">
+        <v>46</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="6"/>
+        <v>460</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" si="8"/>
+        <v>49.954000000000001</v>
+      </c>
+      <c r="S18" s="19">
+        <f t="shared" si="9"/>
+        <v>15.634116000000004</v>
+      </c>
+      <c r="T18" s="19">
+        <f t="shared" si="10"/>
+        <v>136.89000000000007</v>
+      </c>
+      <c r="U18" s="19">
+        <f t="shared" si="11"/>
+        <v>245.04771600000012</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19">
         <v>8</v>
       </c>
@@ -5146,10 +6245,41 @@
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="19">
+        <v>8</v>
+      </c>
+      <c r="N19" s="19">
+        <v>5</v>
+      </c>
+      <c r="O19" s="19">
+        <v>27</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="R19" s="19">
+        <f t="shared" si="8"/>
+        <v>32.558999999999997</v>
+      </c>
+      <c r="S19" s="19">
+        <f t="shared" si="9"/>
+        <v>30.902480999999973</v>
+      </c>
+      <c r="T19" s="19">
+        <f t="shared" si="10"/>
+        <v>53.289999999999957</v>
+      </c>
+      <c r="U19" s="19">
+        <f t="shared" si="11"/>
+        <v>3.031080999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19">
         <v>9</v>
       </c>
@@ -5185,10 +6315,41 @@
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+      <c r="M20" s="19">
+        <v>9</v>
+      </c>
+      <c r="N20" s="19">
+        <v>3</v>
+      </c>
+      <c r="O20" s="19">
+        <v>29</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="Q20" s="19">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="R20" s="19">
+        <f t="shared" si="8"/>
+        <v>25.600999999999999</v>
+      </c>
+      <c r="S20" s="19">
+        <f t="shared" si="9"/>
+        <v>11.553201000000007</v>
+      </c>
+      <c r="T20" s="19">
+        <f t="shared" si="10"/>
+        <v>28.089999999999971</v>
+      </c>
+      <c r="U20" s="19">
+        <f t="shared" si="11"/>
+        <v>75.672600999999972</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="19">
         <v>10</v>
       </c>
@@ -5224,11 +6385,41 @@
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="19">
+        <v>10</v>
+      </c>
+      <c r="N21" s="19">
+        <v>3</v>
+      </c>
+      <c r="O21" s="19">
+        <v>19</v>
+      </c>
+      <c r="P21" s="19">
+        <f t="shared" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="Q21" s="19">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="R21" s="19">
+        <f t="shared" si="8"/>
+        <v>25.600999999999999</v>
+      </c>
+      <c r="S21" s="19">
+        <f t="shared" si="9"/>
+        <v>43.57320099999999</v>
+      </c>
+      <c r="T21" s="19">
+        <f t="shared" si="10"/>
+        <v>234.08999999999992</v>
+      </c>
+      <c r="U21" s="19">
+        <f t="shared" si="11"/>
+        <v>75.672600999999972</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
         <v>0</v>
       </c>
@@ -5237,15 +6428,15 @@
         <v>54</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" ref="D22:F22" si="6">SUM(D12:D21)</f>
+        <f t="shared" ref="D22:F22" si="12">SUM(D12:D21)</f>
         <v>343</v>
       </c>
       <c r="E22" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2063</v>
       </c>
       <c r="F22" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>348</v>
       </c>
       <c r="G22" s="20"/>
@@ -5263,16 +6454,52 @@
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="2:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <f>SUM(N12:N21)</f>
+        <v>55</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" ref="O22:Q22" si="13">SUM(O12:O21)</f>
+        <v>343</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="13"/>
+        <v>2097</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="13"/>
+        <v>363</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20">
+        <f>SUM(S12:S21)</f>
+        <v>189.69920299999998</v>
+      </c>
+      <c r="T22" s="20">
+        <f>SUM(T12:T21)</f>
+        <v>922.09999999999991</v>
+      </c>
+      <c r="U22" s="20">
+        <f>SUM(U12:U21)</f>
+        <v>732.25820300000021</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
+      <c r="J23" s="236" t="s">
+        <v>145</v>
+      </c>
       <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="M23"/>
+      <c r="N23" s="17"/>
+      <c r="U23" s="237" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
@@ -5285,11 +6512,29 @@
         <v>64</v>
       </c>
       <c r="I24" s="12"/>
+      <c r="J24">
+        <f>H22+J22</f>
+        <v>921.43198800000005</v>
+      </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="T24" s="12"/>
+      <c r="U24">
+        <f>S22+U22</f>
+        <v>921.95740600000022</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -5300,11 +6545,17 @@
       <c r="I25" s="12"/>
       <c r="J25" s="17"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="33"/>
-    </row>
-    <row r="26" spans="2:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="5"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="2:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="187" t="s">
         <v>75</v>
       </c>
@@ -5319,11 +6570,21 @@
       <c r="I26" s="12"/>
       <c r="J26" s="3"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="33"/>
-    </row>
-    <row r="27" spans="2:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="M26" s="187" t="s">
+        <v>142</v>
+      </c>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="T26" s="12"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="2:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
@@ -5338,21 +6599,32 @@
       <c r="I27" s="12"/>
       <c r="J27" s="3"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="33"/>
-    </row>
-    <row r="28" spans="2:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="T27" s="12"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="2:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="33"/>
-    </row>
-    <row r="29" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="12"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+    </row>
+    <row r="29" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="179" t="s">
         <v>76</v>
       </c>
@@ -5360,21 +6632,27 @@
       <c r="D29" s="180"/>
       <c r="E29" s="180"/>
       <c r="F29" s="181"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-    </row>
-    <row r="30" spans="2:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="179" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="181"/>
+    </row>
+    <row r="30" spans="2:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="52"/>
       <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="2:17" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="2:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="176" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C31" s="177"/>
       <c r="D31" s="177"/>
@@ -5383,33 +6661,341 @@
       <c r="H31" s="92" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="176" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="178"/>
+      <c r="S31" s="92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
     </row>
-    <row r="34" spans="8:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
       <c r="H34" s="17"/>
-    </row>
-    <row r="36" spans="8:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M36" s="174" t="s">
-        <v>66</v>
-      </c>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
+      <c r="M34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="M38" s="174" t="s">
+        <v>149</v>
+      </c>
+      <c r="N38" s="175"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+      <c r="R38" s="184"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="184"/>
+    </row>
+    <row r="41" spans="2:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="194" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="285"/>
+    </row>
+    <row r="42" spans="2:20" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B42" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="282" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="286" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="19">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19">
+        <v>7</v>
+      </c>
+      <c r="D43" s="19">
+        <v>41</v>
+      </c>
+      <c r="E43" s="19">
+        <f>C43*D43</f>
+        <v>287</v>
+      </c>
+      <c r="F43" s="283">
+        <f>C43*C43</f>
+        <v>49</v>
+      </c>
+      <c r="G43" s="287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="19">
+        <v>2</v>
+      </c>
+      <c r="C44" s="19">
+        <v>3</v>
+      </c>
+      <c r="D44" s="19">
+        <v>27</v>
+      </c>
+      <c r="E44" s="19">
+        <f t="shared" ref="E44:E52" si="14">C44*D44</f>
+        <v>81</v>
+      </c>
+      <c r="F44" s="283">
+        <f t="shared" ref="F44:F52" si="15">C44*C44</f>
+        <v>9</v>
+      </c>
+      <c r="G44" s="287">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
+        <v>3</v>
+      </c>
+      <c r="C45" s="19">
+        <v>5</v>
+      </c>
+      <c r="D45" s="19">
+        <v>35</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="14"/>
+        <v>175</v>
+      </c>
+      <c r="F45" s="283">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="G45" s="287">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="19">
+        <v>4</v>
+      </c>
+      <c r="C46" s="19">
+        <v>3</v>
+      </c>
+      <c r="D46" s="19">
+        <v>26</v>
+      </c>
+      <c r="E46" s="19">
+        <f t="shared" si="14"/>
+        <v>78</v>
+      </c>
+      <c r="F46" s="283">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="G46" s="287">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="19">
+        <v>5</v>
+      </c>
+      <c r="C47" s="19">
+        <v>8</v>
+      </c>
+      <c r="D47" s="19">
+        <v>48</v>
+      </c>
+      <c r="E47" s="19">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+      <c r="F47" s="283">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+      <c r="G47" s="287">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="19">
+        <v>6</v>
+      </c>
+      <c r="C48" s="19">
+        <v>7</v>
+      </c>
+      <c r="D48" s="19">
+        <v>45</v>
+      </c>
+      <c r="E48" s="19">
+        <f t="shared" si="14"/>
+        <v>315</v>
+      </c>
+      <c r="F48" s="283">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="G48" s="287">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="19">
+        <v>7</v>
+      </c>
+      <c r="C49" s="19">
+        <v>10</v>
+      </c>
+      <c r="D49" s="19">
+        <v>46</v>
+      </c>
+      <c r="E49" s="19">
+        <f t="shared" si="14"/>
+        <v>460</v>
+      </c>
+      <c r="F49" s="283">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="G49" s="287">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="19">
+        <v>8</v>
+      </c>
+      <c r="C50" s="19">
+        <v>3</v>
+      </c>
+      <c r="D50" s="19">
+        <v>27</v>
+      </c>
+      <c r="E50" s="19">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="F50" s="283">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="G50" s="287">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="19">
+        <v>9</v>
+      </c>
+      <c r="C51" s="19">
+        <v>5</v>
+      </c>
+      <c r="D51" s="19">
+        <v>29</v>
+      </c>
+      <c r="E51" s="19">
+        <f t="shared" si="14"/>
+        <v>145</v>
+      </c>
+      <c r="F51" s="283">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="G51" s="287">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="19">
+        <v>10</v>
+      </c>
+      <c r="C52" s="19">
+        <v>3</v>
+      </c>
+      <c r="D52" s="19">
+        <v>19</v>
+      </c>
+      <c r="E52" s="19">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+      <c r="F52" s="283">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="G52" s="288">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="20">
+        <f>SUM(C43:C52)</f>
+        <v>54</v>
+      </c>
+      <c r="D53" s="20">
+        <f t="shared" ref="D53:F53" si="16">SUM(D43:D52)</f>
+        <v>343</v>
+      </c>
+      <c r="E53" s="20">
+        <f t="shared" si="16"/>
+        <v>2063</v>
+      </c>
+      <c r="F53" s="284">
+        <f t="shared" si="16"/>
+        <v>348</v>
+      </c>
+      <c r="G53" s="289">
+        <f>SUM(G43:G52)/10</f>
+        <v>2.84</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M29:Q29"/>
-    <mergeCell ref="M36:Q36"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="M8:U8"/>
+  <mergeCells count="24">
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="M38:T38"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B4:J4"/>
@@ -5421,9 +7007,20 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B29:F29"/>
+    <mergeCell ref="M29:Q29"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="M8:U8"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="M26:Q26"/>
+    <mergeCell ref="M31:Q31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5432,7 +7029,7 @@
   <dimension ref="A2:AA37"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B4" sqref="B4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5586,31 +7183,31 @@
       <c r="M7" s="184"/>
       <c r="N7" s="34"/>
       <c r="O7" s="34"/>
-      <c r="P7" s="202" t="s">
+      <c r="P7" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="219"/>
+      <c r="S7" s="219"/>
+      <c r="T7" s="219"/>
+      <c r="U7" s="219"/>
       <c r="V7" s="31"/>
     </row>
     <row r="8" spans="1:27" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="210" t="s">
+      <c r="B8" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
@@ -5628,27 +7225,27 @@
     </row>
     <row r="9" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
       <c r="N9" s="74"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="214" t="s">
+      <c r="Q9" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="214"/>
-      <c r="S9" s="215"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="212"/>
       <c r="T9" s="43" t="s">
         <v>40</v>
       </c>
@@ -6235,7 +7832,7 @@
       <c r="M22" s="70"/>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
-      <c r="P22" s="216" t="s">
+      <c r="P22" s="213" t="s">
         <v>50</v>
       </c>
       <c r="Q22" s="180"/>
@@ -6291,11 +7888,11 @@
       <c r="M24" s="70"/>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="217" t="s">
+      <c r="P24" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="219"/>
+      <c r="Q24" s="215"/>
+      <c r="R24" s="216"/>
       <c r="S24" s="180"/>
       <c r="T24" s="180"/>
       <c r="U24" s="181"/>
@@ -6353,7 +7950,7 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="213" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="180"/>
@@ -6401,16 +7998,16 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -6426,16 +8023,16 @@
       <c r="V29" s="17"/>
     </row>
     <row r="30" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="206"/>
       <c r="J30" s="73" t="s">
         <v>46</v>
       </c>
@@ -7271,31 +8868,31 @@
       <c r="M7" s="184"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
-      <c r="P7" s="202" t="s">
+      <c r="P7" s="219" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="219"/>
+      <c r="S7" s="219"/>
+      <c r="T7" s="219"/>
+      <c r="U7" s="219"/>
       <c r="V7" s="85"/>
     </row>
     <row r="8" spans="1:27" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="210" t="s">
+      <c r="B8" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
       <c r="N8" s="53"/>
       <c r="O8" s="53"/>
       <c r="P8" s="53"/>
@@ -7313,27 +8910,27 @@
     </row>
     <row r="9" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="64"/>
-      <c r="C9" s="212" t="s">
+      <c r="C9" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="213"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="213"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
       <c r="N9" s="74"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="214" t="s">
+      <c r="Q9" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="214"/>
-      <c r="S9" s="215"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="212"/>
       <c r="T9" s="43" t="s">
         <v>40</v>
       </c>
@@ -7921,7 +9518,7 @@
       <c r="M22" s="70"/>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
-      <c r="P22" s="216" t="s">
+      <c r="P22" s="213" t="s">
         <v>50</v>
       </c>
       <c r="Q22" s="180"/>
@@ -7977,11 +9574,11 @@
       <c r="M24" s="70"/>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
-      <c r="P24" s="217" t="s">
+      <c r="P24" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="219"/>
+      <c r="Q24" s="215"/>
+      <c r="R24" s="216"/>
       <c r="S24" s="180"/>
       <c r="T24" s="180"/>
       <c r="U24" s="181"/>
@@ -8039,7 +9636,7 @@
       <c r="V26" s="17"/>
     </row>
     <row r="27" spans="2:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="216" t="s">
+      <c r="B27" s="213" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="180"/>
@@ -8087,16 +9684,16 @@
       <c r="V28" s="17"/>
     </row>
     <row r="29" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="204"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -8112,16 +9709,16 @@
       <c r="V29" s="17"/>
     </row>
     <row r="30" spans="2:25" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="205" t="s">
+      <c r="B30" s="202" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
+      <c r="I30" s="206"/>
       <c r="J30" s="73" t="s">
         <v>46</v>
       </c>
@@ -8184,6 +9781,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:M7"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="Q30:U30"/>
@@ -8193,12 +9796,6 @@
     <mergeCell ref="P22:U22"/>
     <mergeCell ref="P24:U24"/>
     <mergeCell ref="B27:I27"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -8210,7 +9807,7 @@
   <dimension ref="A2:AA31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8251,12 +9848,12 @@
       <c r="C2" s="182"/>
       <c r="D2" s="182"/>
       <c r="E2" s="182"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="235"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="222"/>
       <c r="L2" s="184"/>
     </row>
     <row r="3" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8277,10 +9874,10 @@
       <c r="H4" s="184"/>
       <c r="I4" s="126"/>
       <c r="J4" s="126"/>
-      <c r="K4" s="228" t="s">
+      <c r="K4" s="224" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="229"/>
+      <c r="L4" s="225"/>
       <c r="O4" s="137"/>
       <c r="P4" s="137"/>
       <c r="Q4" s="137"/>
@@ -8305,8 +9902,8 @@
       <c r="H5" s="138"/>
       <c r="I5" s="144"/>
       <c r="J5" s="144"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="229"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
       <c r="O5" s="137"/>
       <c r="P5" s="137"/>
       <c r="Q5" s="137"/>
@@ -8324,8 +9921,8 @@
       <c r="F6" s="198"/>
       <c r="G6" s="198"/>
       <c r="H6" s="139"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
       <c r="O6" s="137"/>
       <c r="P6" s="137"/>
       <c r="Q6" s="137"/>
@@ -8354,8 +9951,8 @@
       <c r="H7" s="132"/>
       <c r="I7" s="126"/>
       <c r="J7" s="126"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="225"/>
       <c r="O7" s="137"/>
       <c r="P7" s="137"/>
       <c r="Q7" s="137"/>
@@ -8374,16 +9971,16 @@
       <c r="B8" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
-      <c r="F8" s="227"/>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
       <c r="J8" s="128"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
+      <c r="K8" s="225"/>
+      <c r="L8" s="225"/>
       <c r="M8" s="137"/>
       <c r="N8" s="137"/>
       <c r="O8" s="137"/>
@@ -8429,16 +10026,16 @@
       <c r="D10" s="195"/>
       <c r="E10" s="195"/>
       <c r="F10" s="196"/>
-      <c r="G10" s="221" t="s">
+      <c r="G10" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="222"/>
-      <c r="I10" s="222"/>
+      <c r="H10" s="232"/>
+      <c r="I10" s="232"/>
       <c r="J10" s="192"/>
-      <c r="K10" s="223" t="s">
+      <c r="K10" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="224"/>
+      <c r="L10" s="230"/>
       <c r="O10" s="137"/>
       <c r="P10" s="137"/>
       <c r="Q10" s="137"/>
@@ -8699,16 +10296,16 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="230" t="s">
+      <c r="G17" s="226" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="232"/>
-      <c r="K17" s="233" t="s">
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="224"/>
+      <c r="L17" s="230"/>
       <c r="O17" s="137"/>
       <c r="P17" s="137"/>
       <c r="Q17" s="137"/>
@@ -8924,11 +10521,11 @@
       <c r="D25" s="149"/>
       <c r="E25" s="149"/>
       <c r="F25" s="149"/>
-      <c r="G25" s="225" t="s">
+      <c r="G25" s="234" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="226"/>
-      <c r="I25" s="226"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="235"/>
       <c r="J25" s="192"/>
       <c r="K25" s="163" t="s">
         <v>22</v>
@@ -9095,18 +10692,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O29:W29"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="G25:J25"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="K4:L8"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="O29:W29"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9118,7 +10715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F97F64A-C0A7-4843-BE88-AE144A7C843B}">
   <dimension ref="A2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M29" sqref="M29:P29"/>
     </sheetView>
   </sheetViews>
@@ -9699,6 +11296,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="M4:T4"/>
+    <mergeCell ref="B6:G6"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="M29:P29"/>
     <mergeCell ref="B27:H27"/>
@@ -9711,15 +11314,683 @@
     <mergeCell ref="O21:R21"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="O23:R23"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="M4:T4"/>
-    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA51749-7AD9-48A7-963F-598C2E012D2E}">
+  <dimension ref="A1:Y40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="270" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="240"/>
+    </row>
+    <row r="2" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="238" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="240"/>
+      <c r="J2" s="187" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+    </row>
+    <row r="3" spans="1:25" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="240"/>
+    </row>
+    <row r="4" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="240"/>
+      <c r="J4" s="277" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="225"/>
+      <c r="O4" s="225"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="225"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="278" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="279"/>
+      <c r="D5" s="243" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="244" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="245"/>
+      <c r="G5" s="240"/>
+    </row>
+    <row r="6" spans="1:25" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B6" s="278" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="279"/>
+      <c r="D6" s="243" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="246">
+        <v>25</v>
+      </c>
+      <c r="F6" s="247" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="239"/>
+      <c r="H6" s="248"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="271"/>
+      <c r="B7" s="278" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="279"/>
+      <c r="D7" s="243" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="246">
+        <v>50</v>
+      </c>
+      <c r="F7" s="247" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="249"/>
+      <c r="H7" s="250"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="271"/>
+      <c r="B8" s="278" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="279"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="250"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="278" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="280"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="279"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="255"/>
+      <c r="H9" s="256"/>
+    </row>
+    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="257"/>
+      <c r="C10" s="258"/>
+      <c r="D10" s="281" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="259">
+        <f>MAX(E14:E37)</f>
+        <v>48</v>
+      </c>
+      <c r="F10" s="259">
+        <f>MAX(F14:F37)</f>
+        <v>96</v>
+      </c>
+      <c r="G10" s="261">
+        <f>MIN(G14:G37)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="256"/>
+    </row>
+    <row r="11" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="257"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="281" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="259">
+        <f>MIN(E14:E37)</f>
+        <v>19</v>
+      </c>
+      <c r="F11" s="259">
+        <f>MIN(F14:F37)</f>
+        <v>38</v>
+      </c>
+      <c r="G11" s="261">
+        <f>MAX(G14:G37)</f>
+        <v>4.7</v>
+      </c>
+      <c r="H11" s="256"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="258"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="258"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="255"/>
+      <c r="H12" s="256"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="242" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="242" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="242" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="262" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="263" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="264" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="256"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="265">
+        <v>1</v>
+      </c>
+      <c r="C14" s="266"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="267">
+        <v>41</v>
+      </c>
+      <c r="F14" s="268">
+        <f>MIN(100,E14/$E$7*100)</f>
+        <v>82</v>
+      </c>
+      <c r="G14" s="269">
+        <f t="shared" ref="G14:G23" si="0">TRUNC(MAX(1,(MIN(5,(3*($E$7-E14)/($E$7-$E$6)+1)))),1)</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="256"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B14)+1,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="266"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="267">
+        <v>27</v>
+      </c>
+      <c r="F15" s="268">
+        <f t="shared" ref="F15:F23" si="1">E15/$E$7*100</f>
+        <v>54</v>
+      </c>
+      <c r="G15" s="269">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="H15" s="256"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B15)+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="266"/>
+      <c r="D16" s="266"/>
+      <c r="E16" s="267">
+        <v>35</v>
+      </c>
+      <c r="F16" s="268">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G16" s="269">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H16" s="256"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B16)+1,"")</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="266"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="267">
+        <v>26</v>
+      </c>
+      <c r="F17" s="268">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G17" s="269">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="H17" s="256"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B17)+1,"")</f>
+        <v>5</v>
+      </c>
+      <c r="C18" s="266"/>
+      <c r="D18" s="266"/>
+      <c r="E18" s="267">
+        <v>48</v>
+      </c>
+      <c r="F18" s="268">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G18" s="269">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="H18" s="256"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B18)+1,"")</f>
+        <v>6</v>
+      </c>
+      <c r="C19" s="266"/>
+      <c r="D19" s="266"/>
+      <c r="E19" s="267">
+        <v>45</v>
+      </c>
+      <c r="F19" s="268">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G19" s="269">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="H19" s="256"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B19)+1,"")</f>
+        <v>7</v>
+      </c>
+      <c r="C20" s="266"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="267">
+        <v>46</v>
+      </c>
+      <c r="F20" s="268">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="G20" s="269">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="H20" s="256"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B20)+1,"")</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="266"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="267">
+        <v>27</v>
+      </c>
+      <c r="F21" s="268">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="G21" s="269">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="H21" s="256"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B21)+1,"")</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="267">
+        <v>29</v>
+      </c>
+      <c r="F22" s="268">
+        <f t="shared" si="1"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="G22" s="269">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H22" s="256"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="265">
+        <f>IF(B$14&gt;0,MAX(B$14:B22)+1,"")</f>
+        <v>10</v>
+      </c>
+      <c r="C23" s="266"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="276">
+        <v>19</v>
+      </c>
+      <c r="F23" s="260">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G23" s="261">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="H23" s="256"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="272"/>
+      <c r="C24" s="273"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="272"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="272"/>
+      <c r="C26" s="273"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="272"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="272"/>
+      <c r="C28" s="273"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="272"/>
+      <c r="C29" s="273"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="272"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="272"/>
+      <c r="C31" s="273"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="272"/>
+      <c r="C32" s="273"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="273"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="273"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="272"/>
+      <c r="C37" s="273"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="275"/>
+      <c r="C38" s="275"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="275"/>
+      <c r="C39" s="275"/>
+      <c r="D39" s="275"/>
+      <c r="E39" s="255"/>
+      <c r="F39" s="255"/>
+      <c r="G39" s="255"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="275"/>
+      <c r="C40" s="275"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="255"/>
+      <c r="F40" s="255"/>
+      <c r="G40" s="274"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G14:G23">
+    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F23">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E23">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:E8">
+    <cfRule type="containsText" dxfId="0" priority="1" stopIfTrue="1" operator="containsText" text="bitte eintragen">
+      <formula>NOT(ISERROR(SEARCH("bitte eintragen",D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>